--- a/data/pca/factorExposure/factorExposure_2011-08-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +735,66 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.01853347776226213</v>
+        <v>0.01626066934457649</v>
       </c>
       <c r="C2">
-        <v>0.008803663188763949</v>
+        <v>-0.006645344684271638</v>
       </c>
       <c r="D2">
-        <v>0.0372488748987091</v>
+        <v>0.02610060927111744</v>
       </c>
       <c r="E2">
-        <v>-0.06584829007510228</v>
+        <v>0.03575497818291187</v>
       </c>
       <c r="F2">
-        <v>0.003009658401972648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.016371615542824</v>
+      </c>
+      <c r="G2">
+        <v>0.01303297215533382</v>
+      </c>
+      <c r="H2">
+        <v>-0.01138757217858251</v>
+      </c>
+      <c r="I2">
+        <v>-0.0132034178150314</v>
+      </c>
+      <c r="J2">
+        <v>0.04930259727594258</v>
+      </c>
+      <c r="K2">
+        <v>0.06306834482319029</v>
+      </c>
+      <c r="L2">
+        <v>-0.009852217274131688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +811,66 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-0.06930916411327766</v>
+        <v>0.0920297854725262</v>
       </c>
       <c r="C4">
-        <v>0.03804473444374479</v>
+        <v>-0.05474584389358392</v>
       </c>
       <c r="D4">
-        <v>0.05498819413550422</v>
+        <v>0.02609987116475502</v>
       </c>
       <c r="E4">
-        <v>-0.02351524710936314</v>
+        <v>0.03390011001161448</v>
       </c>
       <c r="F4">
-        <v>-0.03890189906541747</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.08437967985255093</v>
+      </c>
+      <c r="G4">
+        <v>0.05327301051468616</v>
+      </c>
+      <c r="H4">
+        <v>-0.00572572755280437</v>
+      </c>
+      <c r="I4">
+        <v>0.07739256409243515</v>
+      </c>
+      <c r="J4">
+        <v>-0.03209544401338914</v>
+      </c>
+      <c r="K4">
+        <v>-0.02822682544150369</v>
+      </c>
+      <c r="L4">
+        <v>0.03374935864568451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +887,446 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.121453714838243</v>
+        <v>0.1300257360925579</v>
       </c>
       <c r="C6">
-        <v>0.002292945005963387</v>
+        <v>-0.0226892122290326</v>
       </c>
       <c r="D6">
-        <v>0.0571873689381125</v>
+        <v>0.06035496869122999</v>
       </c>
       <c r="E6">
-        <v>-0.07555356954920001</v>
+        <v>0.01602711345416846</v>
       </c>
       <c r="F6">
-        <v>-0.04954634316073391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.0538732099119769</v>
+      </c>
+      <c r="G6">
+        <v>0.05483753039670186</v>
+      </c>
+      <c r="H6">
+        <v>0.166543738874928</v>
+      </c>
+      <c r="I6">
+        <v>0.04786574581344647</v>
+      </c>
+      <c r="J6">
+        <v>-0.4444692368910416</v>
+      </c>
+      <c r="K6">
+        <v>0.09531621113619985</v>
+      </c>
+      <c r="L6">
+        <v>-0.05722071579229405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.06308259487752287</v>
+        <v>0.06710844186175698</v>
       </c>
       <c r="C7">
-        <v>0.01190251706496877</v>
+        <v>-0.05189850133002213</v>
       </c>
       <c r="D7">
-        <v>0.0519218766941662</v>
+        <v>0.04181743161236994</v>
       </c>
       <c r="E7">
-        <v>-0.05807883593922129</v>
+        <v>0.03683606254292223</v>
       </c>
       <c r="F7">
-        <v>-0.02529564769785205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.04626929909764809</v>
+      </c>
+      <c r="G7">
+        <v>0.0005413991573974754</v>
+      </c>
+      <c r="H7">
+        <v>-0.0004450823195097381</v>
+      </c>
+      <c r="I7">
+        <v>0.04170758817803034</v>
+      </c>
+      <c r="J7">
+        <v>0.0524007847998833</v>
+      </c>
+      <c r="K7">
+        <v>-0.05156355000798644</v>
+      </c>
+      <c r="L7">
+        <v>0.04271572338629846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.03200081384722741</v>
+        <v>0.03672782764869911</v>
       </c>
       <c r="C8">
-        <v>0.03690239321012221</v>
+        <v>-0.01559774427052836</v>
       </c>
       <c r="D8">
-        <v>0.0002706345224102323</v>
+        <v>-0.01346232690255614</v>
       </c>
       <c r="E8">
-        <v>-0.0502712134352406</v>
+        <v>0.0639544684386968</v>
       </c>
       <c r="F8">
-        <v>-0.04490371436988001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.03685193831114442</v>
+      </c>
+      <c r="G8">
+        <v>0.0645886905247708</v>
+      </c>
+      <c r="H8">
+        <v>0.01971212255315327</v>
+      </c>
+      <c r="I8">
+        <v>0.09343266599034507</v>
+      </c>
+      <c r="J8">
+        <v>-0.0247044028853208</v>
+      </c>
+      <c r="K8">
+        <v>-0.05962715438051987</v>
+      </c>
+      <c r="L8">
+        <v>0.009732064353898633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.07449184292064583</v>
+        <v>0.08421944726893772</v>
       </c>
       <c r="C9">
-        <v>0.05112842756076723</v>
+        <v>-0.05514030267535312</v>
       </c>
       <c r="D9">
-        <v>0.05931686172806758</v>
+        <v>0.02567138613852669</v>
       </c>
       <c r="E9">
-        <v>-0.02771037535704572</v>
+        <v>0.02539235481904153</v>
       </c>
       <c r="F9">
-        <v>-0.02443445347055444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.06673059251849262</v>
+      </c>
+      <c r="G9">
+        <v>0.05886039646490977</v>
+      </c>
+      <c r="H9">
+        <v>-0.003232138362727979</v>
+      </c>
+      <c r="I9">
+        <v>0.08535421984243997</v>
+      </c>
+      <c r="J9">
+        <v>-0.01924638450305304</v>
+      </c>
+      <c r="K9">
+        <v>-0.02025362564807408</v>
+      </c>
+      <c r="L9">
+        <v>0.003744196327818253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.03051579304135128</v>
+        <v>0.08758962447080142</v>
       </c>
       <c r="C10">
-        <v>-0.1442154062457348</v>
+        <v>0.1811549732383017</v>
       </c>
       <c r="D10">
-        <v>-0.03516255531904684</v>
+        <v>0.0008288792551964274</v>
       </c>
       <c r="E10">
-        <v>-0.07072265663390433</v>
+        <v>0.05043633991427406</v>
       </c>
       <c r="F10">
-        <v>-0.04181958449974348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.03273322778219488</v>
+      </c>
+      <c r="G10">
+        <v>-0.03715449799701991</v>
+      </c>
+      <c r="H10">
+        <v>0.009492914084015855</v>
+      </c>
+      <c r="I10">
+        <v>-0.02683826941540499</v>
+      </c>
+      <c r="J10">
+        <v>0.03406710400033811</v>
+      </c>
+      <c r="K10">
+        <v>0.01938870946074272</v>
+      </c>
+      <c r="L10">
+        <v>0.01239284095178439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.07095074020661271</v>
+        <v>0.07025312197667187</v>
       </c>
       <c r="C11">
-        <v>0.05483097669076947</v>
+        <v>-0.06046129110645081</v>
       </c>
       <c r="D11">
-        <v>0.05820817530258337</v>
+        <v>0.03037821805081093</v>
       </c>
       <c r="E11">
-        <v>-0.03602088907515168</v>
+        <v>0.01774757002842131</v>
       </c>
       <c r="F11">
-        <v>0.01340491328111423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03116217542071003</v>
+      </c>
+      <c r="G11">
+        <v>0.07879655976802505</v>
+      </c>
+      <c r="H11">
+        <v>-0.008342471727188591</v>
+      </c>
+      <c r="I11">
+        <v>0.0588400019198815</v>
+      </c>
+      <c r="J11">
+        <v>0.07582876952040361</v>
+      </c>
+      <c r="K11">
+        <v>0.01601323326280695</v>
+      </c>
+      <c r="L11">
+        <v>-0.02772732976776821</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.06753682317835949</v>
+        <v>0.07028894049922778</v>
       </c>
       <c r="C12">
-        <v>0.03125637309112103</v>
+        <v>-0.04973556566947254</v>
       </c>
       <c r="D12">
-        <v>0.0501652044279452</v>
+        <v>0.01493396846647015</v>
       </c>
       <c r="E12">
-        <v>-0.02281008546627543</v>
+        <v>0.01384025667200573</v>
       </c>
       <c r="F12">
-        <v>-0.01322096950774617</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.04063860009638667</v>
+      </c>
+      <c r="G12">
+        <v>0.07153157092800209</v>
+      </c>
+      <c r="H12">
+        <v>-0.0007593978982494175</v>
+      </c>
+      <c r="I12">
+        <v>0.0905684249925115</v>
+      </c>
+      <c r="J12">
+        <v>0.06576962273929905</v>
+      </c>
+      <c r="K12">
+        <v>0.01399574818846731</v>
+      </c>
+      <c r="L12">
+        <v>0.009797370129133962</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.07375523147465944</v>
+        <v>0.06188733634936752</v>
       </c>
       <c r="C13">
-        <v>0.02571953881162126</v>
+        <v>-0.03984937731220203</v>
       </c>
       <c r="D13">
-        <v>0.02002727071860959</v>
+        <v>-0.01678132903801597</v>
       </c>
       <c r="E13">
-        <v>-0.02554277603178428</v>
+        <v>0.02526518274142655</v>
       </c>
       <c r="F13">
-        <v>-0.01958042249686588</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.01794529564434626</v>
+      </c>
+      <c r="G13">
+        <v>0.02763660445959179</v>
+      </c>
+      <c r="H13">
+        <v>4.635077820754761e-05</v>
+      </c>
+      <c r="I13">
+        <v>0.06968193264614278</v>
+      </c>
+      <c r="J13">
+        <v>0.002083940958940594</v>
+      </c>
+      <c r="K13">
+        <v>-0.06018153474013752</v>
+      </c>
+      <c r="L13">
+        <v>0.05324062866303248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.03536573558779335</v>
+        <v>0.04389286629982734</v>
       </c>
       <c r="C14">
-        <v>-0.002253244986028097</v>
+        <v>-0.01518666955135243</v>
       </c>
       <c r="D14">
-        <v>0.03836170752840373</v>
+        <v>0.02577912801959545</v>
       </c>
       <c r="E14">
-        <v>-0.01008394735784388</v>
+        <v>0.003627190775109129</v>
       </c>
       <c r="F14">
-        <v>-0.01065311201373727</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.04398203776520378</v>
+      </c>
+      <c r="G14">
+        <v>0.04091550687423744</v>
+      </c>
+      <c r="H14">
+        <v>-0.04067770804774148</v>
+      </c>
+      <c r="I14">
+        <v>0.06009100143891537</v>
+      </c>
+      <c r="J14">
+        <v>-0.03090071237354786</v>
+      </c>
+      <c r="K14">
+        <v>-0.04047315029003939</v>
+      </c>
+      <c r="L14">
+        <v>1.166490623331949e-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>-0.0516055800795987</v>
+        <v>0.04044763554123509</v>
       </c>
       <c r="C15">
-        <v>0.01036062458957162</v>
+        <v>-0.01652002664044241</v>
       </c>
       <c r="D15">
-        <v>0.00504469453099192</v>
+        <v>-0.0193529187366083</v>
       </c>
       <c r="E15">
-        <v>-0.007193474680352223</v>
+        <v>-0.001935755569022985</v>
       </c>
       <c r="F15">
-        <v>-0.0329493136728886</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.02306244524702105</v>
+      </c>
+      <c r="G15">
+        <v>0.01517588010227755</v>
+      </c>
+      <c r="H15">
+        <v>-0.007160887272363801</v>
+      </c>
+      <c r="I15">
+        <v>0.02973647230938505</v>
+      </c>
+      <c r="J15">
+        <v>-0.04837343757820203</v>
+      </c>
+      <c r="K15">
+        <v>-0.05278252306007062</v>
+      </c>
+      <c r="L15">
+        <v>0.02076306048405466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.05956902827853536</v>
+        <v>0.07029057148531147</v>
       </c>
       <c r="C16">
-        <v>0.05122403590393998</v>
+        <v>-0.06263941270388916</v>
       </c>
       <c r="D16">
-        <v>0.05106517980976014</v>
+        <v>0.0221323493974458</v>
       </c>
       <c r="E16">
-        <v>-0.01772990979036812</v>
+        <v>0.01430575022223293</v>
       </c>
       <c r="F16">
-        <v>-0.01770691506694379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.04605520354197721</v>
+      </c>
+      <c r="G16">
+        <v>0.05836690146534172</v>
+      </c>
+      <c r="H16">
+        <v>-0.01383590068146564</v>
+      </c>
+      <c r="I16">
+        <v>0.06307311221400963</v>
+      </c>
+      <c r="J16">
+        <v>0.06020990797003138</v>
+      </c>
+      <c r="K16">
+        <v>0.01086464404038325</v>
+      </c>
+      <c r="L16">
+        <v>-0.02413427293487221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1343,28 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1381,28 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1419,294 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.05981079876655355</v>
+        <v>0.05420810158017103</v>
       </c>
       <c r="C20">
-        <v>0.04437274388997858</v>
+        <v>-0.03973436247110056</v>
       </c>
       <c r="D20">
-        <v>0.02169383360809896</v>
+        <v>0.01111727632360029</v>
       </c>
       <c r="E20">
-        <v>-0.03111278115989292</v>
+        <v>0.02357410690194766</v>
       </c>
       <c r="F20">
-        <v>-0.01714410031046969</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.010986217046397</v>
+      </c>
+      <c r="G20">
+        <v>0.05190923087030046</v>
+      </c>
+      <c r="H20">
+        <v>-0.0215530354391589</v>
+      </c>
+      <c r="I20">
+        <v>0.1155644754114874</v>
+      </c>
+      <c r="J20">
+        <v>0.0182749335586712</v>
+      </c>
+      <c r="K20">
+        <v>-0.01540298297671757</v>
+      </c>
+      <c r="L20">
+        <v>0.04114047485374887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>-0.0300461507292161</v>
+        <v>0.0260712696387976</v>
       </c>
       <c r="C21">
-        <v>0.03014226773839734</v>
+        <v>-0.01974695119749235</v>
       </c>
       <c r="D21">
-        <v>-0.0271941492269526</v>
+        <v>-0.03692611336398744</v>
       </c>
       <c r="E21">
-        <v>-0.0154396286715769</v>
+        <v>0.01697485748075837</v>
       </c>
       <c r="F21">
-        <v>-0.07374332500398942</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01791720326065746</v>
+      </c>
+      <c r="G21">
+        <v>0.008527897292477908</v>
+      </c>
+      <c r="H21">
+        <v>0.06660331421997931</v>
+      </c>
+      <c r="I21">
+        <v>0.03808741422589874</v>
+      </c>
+      <c r="J21">
+        <v>-0.07313362128542639</v>
+      </c>
+      <c r="K21">
+        <v>-0.05031655734502177</v>
+      </c>
+      <c r="L21">
+        <v>0.01134688107399622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.1080987852611378</v>
+        <v>0.08396306041185839</v>
       </c>
       <c r="C22">
-        <v>0.1251265012489574</v>
+        <v>-0.09317479129006051</v>
       </c>
       <c r="D22">
-        <v>-0.0474083935596058</v>
+        <v>-0.4340535125727374</v>
       </c>
       <c r="E22">
-        <v>0.01702631397991069</v>
+        <v>0.1389049977724195</v>
       </c>
       <c r="F22">
-        <v>-0.4546101224406132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.3652765642844022</v>
+      </c>
+      <c r="G22">
+        <v>-0.2604995679851268</v>
+      </c>
+      <c r="H22">
+        <v>-0.005071669614932149</v>
+      </c>
+      <c r="I22">
+        <v>-0.2091329348353506</v>
+      </c>
+      <c r="J22">
+        <v>-0.01924098156112724</v>
+      </c>
+      <c r="K22">
+        <v>0.06181075311789993</v>
+      </c>
+      <c r="L22">
+        <v>0.04058179517597295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>-0.1091769834327232</v>
+        <v>0.08491663984298872</v>
       </c>
       <c r="C23">
-        <v>0.1242513901994162</v>
+        <v>-0.09362562254587826</v>
       </c>
       <c r="D23">
-        <v>-0.04551755772229112</v>
+        <v>-0.4346869074559676</v>
       </c>
       <c r="E23">
-        <v>0.01598994850830308</v>
+        <v>0.1401519511378279</v>
       </c>
       <c r="F23">
-        <v>-0.4560015871627603</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.3696848165604159</v>
+      </c>
+      <c r="G23">
+        <v>-0.2551025279847076</v>
+      </c>
+      <c r="H23">
+        <v>-0.006041552395800706</v>
+      </c>
+      <c r="I23">
+        <v>-0.2099365474891254</v>
+      </c>
+      <c r="J23">
+        <v>-0.02488367806290833</v>
+      </c>
+      <c r="K23">
+        <v>0.06374229852391278</v>
+      </c>
+      <c r="L23">
+        <v>0.03762738276287323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>-0.07824542502589284</v>
+        <v>0.07844818509612821</v>
       </c>
       <c r="C24">
-        <v>0.04836418642375463</v>
+        <v>-0.06207066037704459</v>
       </c>
       <c r="D24">
-        <v>0.04738145725688889</v>
+        <v>0.01481195247519633</v>
       </c>
       <c r="E24">
-        <v>-0.03957651810285322</v>
+        <v>0.02374192819950638</v>
       </c>
       <c r="F24">
-        <v>-0.02406766359547011</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.04732621826716039</v>
+      </c>
+      <c r="G24">
+        <v>0.07769131271879304</v>
+      </c>
+      <c r="H24">
+        <v>0.003139700372472833</v>
+      </c>
+      <c r="I24">
+        <v>0.06977421428107998</v>
+      </c>
+      <c r="J24">
+        <v>0.05398890316977474</v>
+      </c>
+      <c r="K24">
+        <v>0.0209459131475454</v>
+      </c>
+      <c r="L24">
+        <v>-0.01012155608109268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>-0.07355413787761104</v>
+        <v>0.07556239276529167</v>
       </c>
       <c r="C25">
-        <v>0.02907839004214039</v>
+        <v>-0.04238653916093976</v>
       </c>
       <c r="D25">
-        <v>0.05269855696920246</v>
+        <v>0.02458927402236196</v>
       </c>
       <c r="E25">
-        <v>-0.04795428033434092</v>
+        <v>0.02271433082091323</v>
       </c>
       <c r="F25">
-        <v>-0.04002191275847192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.05530894767984849</v>
+      </c>
+      <c r="G25">
+        <v>0.07210957905974019</v>
+      </c>
+      <c r="H25">
+        <v>-0.0163388333030314</v>
+      </c>
+      <c r="I25">
+        <v>0.08664491053511764</v>
+      </c>
+      <c r="J25">
+        <v>0.06495045251184833</v>
+      </c>
+      <c r="K25">
+        <v>0.04106735992662949</v>
+      </c>
+      <c r="L25">
+        <v>-0.01793542164196002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>-0.05303336921912834</v>
+        <v>0.04588595058857321</v>
       </c>
       <c r="C26">
-        <v>0.02445018662878396</v>
+        <v>-0.02442172718936683</v>
       </c>
       <c r="D26">
-        <v>0.00841067439997603</v>
+        <v>-0.02041299615950616</v>
       </c>
       <c r="E26">
-        <v>-0.03905685953967263</v>
+        <v>0.01128485219204501</v>
       </c>
       <c r="F26">
-        <v>0.01028990712493959</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01277293602765836</v>
+      </c>
+      <c r="G26">
+        <v>0.02747297719395038</v>
+      </c>
+      <c r="H26">
+        <v>-0.01089895528541635</v>
+      </c>
+      <c r="I26">
+        <v>0.04621891038200913</v>
+      </c>
+      <c r="J26">
+        <v>-0.04487615810404372</v>
+      </c>
+      <c r="K26">
+        <v>-0.1244596054103417</v>
+      </c>
+      <c r="L26">
+        <v>0.01956073897166511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1723,370 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>-0.06950502213293248</v>
+        <v>0.1120014068432559</v>
       </c>
       <c r="C28">
-        <v>-0.2891182910629213</v>
+        <v>0.2953181914274684</v>
       </c>
       <c r="D28">
-        <v>-0.06686480371495858</v>
+        <v>-0.02407735864217163</v>
       </c>
       <c r="E28">
-        <v>-0.08064509447093549</v>
+        <v>0.03686452036927529</v>
       </c>
       <c r="F28">
-        <v>0.001681792136906575</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.001255400637606677</v>
+      </c>
+      <c r="G28">
+        <v>-0.001014039622491183</v>
+      </c>
+      <c r="H28">
+        <v>0.0289229418467498</v>
+      </c>
+      <c r="I28">
+        <v>-0.02747025990182999</v>
+      </c>
+      <c r="J28">
+        <v>-0.02013174600616737</v>
+      </c>
+      <c r="K28">
+        <v>-0.05912328896776959</v>
+      </c>
+      <c r="L28">
+        <v>0.01561845300769322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>-0.05033413908160934</v>
+        <v>0.04867151937172013</v>
       </c>
       <c r="C29">
-        <v>-0.002043793746199284</v>
+        <v>-0.01670648810147008</v>
       </c>
       <c r="D29">
-        <v>0.02192409029999581</v>
+        <v>0.009131680599508852</v>
       </c>
       <c r="E29">
-        <v>-0.01582425155904421</v>
+        <v>0.01794997691930298</v>
       </c>
       <c r="F29">
-        <v>-0.03517066244432061</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03522503486314617</v>
+      </c>
+      <c r="G29">
+        <v>0.04099062648301765</v>
+      </c>
+      <c r="H29">
+        <v>-0.04366109104068516</v>
+      </c>
+      <c r="I29">
+        <v>0.04770158557721307</v>
+      </c>
+      <c r="J29">
+        <v>-0.01784080603708957</v>
+      </c>
+      <c r="K29">
+        <v>-0.02938927530672067</v>
+      </c>
+      <c r="L29">
+        <v>0.005917974133041167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>-0.1478601218553921</v>
+        <v>0.1206690667672657</v>
       </c>
       <c r="C30">
-        <v>0.05530442930888558</v>
+        <v>-0.07015405152444498</v>
       </c>
       <c r="D30">
-        <v>0.09406466185668792</v>
+        <v>-0.005981446564247095</v>
       </c>
       <c r="E30">
-        <v>-0.08064652496700705</v>
+        <v>0.06099860776653338</v>
       </c>
       <c r="F30">
-        <v>-0.07685715907070852</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1227726812971174</v>
+      </c>
+      <c r="G30">
+        <v>0.0942744534326327</v>
+      </c>
+      <c r="H30">
+        <v>0.06119007194159148</v>
+      </c>
+      <c r="I30">
+        <v>0.2166402629341755</v>
+      </c>
+      <c r="J30">
+        <v>0.05764886627864339</v>
+      </c>
+      <c r="K30">
+        <v>-0.009094351175109096</v>
+      </c>
+      <c r="L30">
+        <v>0.4397361824047589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-0.05721636697668205</v>
+        <v>0.04382375521183105</v>
       </c>
       <c r="C31">
-        <v>0.009231053431412567</v>
+        <v>-0.04097052821924393</v>
       </c>
       <c r="D31">
-        <v>0.02692719191440887</v>
+        <v>-0.003954889017738585</v>
       </c>
       <c r="E31">
-        <v>-0.001994280873674149</v>
+        <v>-0.006830844376644841</v>
       </c>
       <c r="F31">
-        <v>-0.006229735132928156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01805632041247264</v>
+      </c>
+      <c r="G31">
+        <v>0.00977830910087342</v>
+      </c>
+      <c r="H31">
+        <v>-0.0534103906623827</v>
+      </c>
+      <c r="I31">
+        <v>0.04817085454303012</v>
+      </c>
+      <c r="J31">
+        <v>-0.01704405505097523</v>
+      </c>
+      <c r="K31">
+        <v>-0.008117223537305903</v>
+      </c>
+      <c r="L31">
+        <v>0.01571244928490611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>-0.04806089183278233</v>
+        <v>0.0510655707629746</v>
       </c>
       <c r="C32">
-        <v>0.01581571886425827</v>
+        <v>-0.003869671405643462</v>
       </c>
       <c r="D32">
-        <v>0.005046835816648322</v>
+        <v>-0.03946180071959261</v>
       </c>
       <c r="E32">
-        <v>0.006346856540145693</v>
+        <v>0.009374075315230898</v>
       </c>
       <c r="F32">
-        <v>-0.07647916223767438</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.05407104999315058</v>
+      </c>
+      <c r="G32">
+        <v>0.007865766098789832</v>
+      </c>
+      <c r="H32">
+        <v>-0.005900947864060982</v>
+      </c>
+      <c r="I32">
+        <v>0.00542117572600772</v>
+      </c>
+      <c r="J32">
+        <v>-0.02126217508703682</v>
+      </c>
+      <c r="K32">
+        <v>-0.09376460961969357</v>
+      </c>
+      <c r="L32">
+        <v>0.09135499484957954</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>-0.1041734736253573</v>
+        <v>0.1038070177412664</v>
       </c>
       <c r="C33">
-        <v>0.03016714657552248</v>
+        <v>-0.05618985296209792</v>
       </c>
       <c r="D33">
-        <v>0.0593438513786757</v>
+        <v>0.006630286100074899</v>
       </c>
       <c r="E33">
-        <v>-0.01662055423757978</v>
+        <v>-0.01866667715655934</v>
       </c>
       <c r="F33">
-        <v>0.003589319866221313</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.04337025145821224</v>
+      </c>
+      <c r="G33">
+        <v>0.04598855975774713</v>
+      </c>
+      <c r="H33">
+        <v>-0.03863960304996225</v>
+      </c>
+      <c r="I33">
+        <v>0.06924292421203583</v>
+      </c>
+      <c r="J33">
+        <v>-0.01765839061397933</v>
+      </c>
+      <c r="K33">
+        <v>-0.02205626062558479</v>
+      </c>
+      <c r="L33">
+        <v>0.003233811534426811</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>-0.06100775109421457</v>
+        <v>0.06476680119869038</v>
       </c>
       <c r="C34">
-        <v>0.05141273698630814</v>
+        <v>-0.05172943832445954</v>
       </c>
       <c r="D34">
-        <v>0.0398573928242281</v>
+        <v>0.01937711224118194</v>
       </c>
       <c r="E34">
-        <v>-0.02356468155617888</v>
+        <v>0.0124798942953318</v>
       </c>
       <c r="F34">
-        <v>-0.03485191429576275</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.0346643640965541</v>
+      </c>
+      <c r="G34">
+        <v>0.06576762120796119</v>
+      </c>
+      <c r="H34">
+        <v>-0.01974325673963262</v>
+      </c>
+      <c r="I34">
+        <v>0.06719722900502313</v>
+      </c>
+      <c r="J34">
+        <v>0.04635213240793095</v>
+      </c>
+      <c r="K34">
+        <v>0.02905305684139476</v>
+      </c>
+      <c r="L34">
+        <v>-0.03963728239156018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>-0.04239109404219466</v>
+        <v>0.03447712134375771</v>
       </c>
       <c r="C35">
-        <v>0.01231400357865666</v>
+        <v>-0.02199651335540181</v>
       </c>
       <c r="D35">
-        <v>0.02597865417864809</v>
+        <v>0.005666947737196453</v>
       </c>
       <c r="E35">
-        <v>-0.004413438204281949</v>
+        <v>-0.006215305248904564</v>
       </c>
       <c r="F35">
-        <v>-0.01901385393337111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.02186487495393277</v>
+      </c>
+      <c r="G35">
+        <v>-0.001256762289120099</v>
+      </c>
+      <c r="H35">
+        <v>-0.02224167447073561</v>
+      </c>
+      <c r="I35">
+        <v>0.06942471012418412</v>
+      </c>
+      <c r="J35">
+        <v>0.02112851979196207</v>
+      </c>
+      <c r="K35">
+        <v>-0.01289061919056702</v>
+      </c>
+      <c r="L35">
+        <v>0.02800410653653593</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>-0.03794830712299732</v>
+        <v>0.03348913710670588</v>
       </c>
       <c r="C36">
-        <v>0.01504416139194539</v>
+        <v>-0.01678371539821603</v>
       </c>
       <c r="D36">
-        <v>0.01587384801037156</v>
+        <v>-0.008274771651201154</v>
       </c>
       <c r="E36">
-        <v>-0.03317922093918601</v>
+        <v>0.02100102799128746</v>
       </c>
       <c r="F36">
-        <v>-0.02636372914409141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02869117696627539</v>
+      </c>
+      <c r="G36">
+        <v>0.03710356376222976</v>
+      </c>
+      <c r="H36">
+        <v>-0.009456541522311129</v>
+      </c>
+      <c r="I36">
+        <v>0.07021421524549311</v>
+      </c>
+      <c r="J36">
+        <v>-0.01294812248909173</v>
+      </c>
+      <c r="K36">
+        <v>-0.0299727337283848</v>
+      </c>
+      <c r="L36">
+        <v>0.01079589223062227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +2103,180 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>-0.06302345601962391</v>
+        <v>0.04799077797202484</v>
       </c>
       <c r="C38">
-        <v>0.02111410286770832</v>
+        <v>-0.04519348955591455</v>
       </c>
       <c r="D38">
-        <v>-0.01623165147344577</v>
+        <v>-0.02775630594784582</v>
       </c>
       <c r="E38">
-        <v>0.01197454703298344</v>
+        <v>0.01757045683840038</v>
       </c>
       <c r="F38">
-        <v>-0.06885689732527055</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.009965917439741765</v>
+      </c>
+      <c r="G38">
+        <v>-0.01449420935909513</v>
+      </c>
+      <c r="H38">
+        <v>-0.01909418835945698</v>
+      </c>
+      <c r="I38">
+        <v>-0.1223740967996467</v>
+      </c>
+      <c r="J38">
+        <v>0.01345368520229434</v>
+      </c>
+      <c r="K38">
+        <v>-0.0808148147856088</v>
+      </c>
+      <c r="L38">
+        <v>0.04668692548790972</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>-0.09506259671412884</v>
+        <v>0.09512239980596385</v>
       </c>
       <c r="C39">
-        <v>0.0483899636398511</v>
+        <v>-0.05996504516354704</v>
       </c>
       <c r="D39">
-        <v>0.06889144453666755</v>
+        <v>0.01802016616941034</v>
       </c>
       <c r="E39">
-        <v>-0.01364360604789857</v>
+        <v>0.01490758309805703</v>
       </c>
       <c r="F39">
-        <v>-0.01865123014076528</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05512062898362152</v>
+      </c>
+      <c r="G39">
+        <v>0.06729172868247298</v>
+      </c>
+      <c r="H39">
+        <v>-0.003266223221110134</v>
+      </c>
+      <c r="I39">
+        <v>0.0931299495932114</v>
+      </c>
+      <c r="J39">
+        <v>0.1566113980854951</v>
+      </c>
+      <c r="K39">
+        <v>0.00113628766332675</v>
+      </c>
+      <c r="L39">
+        <v>0.07023078643146362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>-0.08191764256840953</v>
+        <v>0.04569488469084872</v>
       </c>
       <c r="C40">
-        <v>0.02183174925365168</v>
+        <v>-0.05494902463708704</v>
       </c>
       <c r="D40">
-        <v>0.03733285486837157</v>
+        <v>-0.05939455501174866</v>
       </c>
       <c r="E40">
-        <v>-0.03420672900745301</v>
+        <v>0.005205158399844635</v>
       </c>
       <c r="F40">
-        <v>-0.1471618094398019</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.04671796630665476</v>
+      </c>
+      <c r="G40">
+        <v>0.0973825238644246</v>
+      </c>
+      <c r="H40">
+        <v>0.09255251817515178</v>
+      </c>
+      <c r="I40">
+        <v>0.08374740468956228</v>
+      </c>
+      <c r="J40">
+        <v>0.1828204217310404</v>
+      </c>
+      <c r="K40">
+        <v>-0.05520921136288498</v>
+      </c>
+      <c r="L40">
+        <v>0.08755676935520307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>-0.06291296097678871</v>
+        <v>0.04610432039582744</v>
       </c>
       <c r="C41">
-        <v>0.0397915772551402</v>
+        <v>-0.03684093167459455</v>
       </c>
       <c r="D41">
-        <v>0.02984849152976781</v>
+        <v>0.0143731050651747</v>
       </c>
       <c r="E41">
-        <v>0.001336609585204205</v>
+        <v>-0.005355991342658914</v>
       </c>
       <c r="F41">
-        <v>-0.006906474825679452</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.01536482885682983</v>
+      </c>
+      <c r="G41">
+        <v>0.03111619683815946</v>
+      </c>
+      <c r="H41">
+        <v>-0.0335895080195339</v>
+      </c>
+      <c r="I41">
+        <v>0.008925265659495694</v>
+      </c>
+      <c r="J41">
+        <v>0.02041452035708812</v>
+      </c>
+      <c r="K41">
+        <v>-0.03268823305999899</v>
+      </c>
+      <c r="L41">
+        <v>0.02998105841811936</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2293,104 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>-0.06210353965353896</v>
+        <v>0.05831528617638454</v>
       </c>
       <c r="C43">
-        <v>0.02247932718733384</v>
+        <v>-0.04427789311154422</v>
       </c>
       <c r="D43">
-        <v>0.02313697452252644</v>
+        <v>0.004324918448680961</v>
       </c>
       <c r="E43">
-        <v>-0.02103840651003727</v>
+        <v>0.01925069571610862</v>
       </c>
       <c r="F43">
-        <v>-0.007664541434651663</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01589834937766119</v>
+      </c>
+      <c r="G43">
+        <v>0.0202833101604444</v>
+      </c>
+      <c r="H43">
+        <v>-0.05299071925991462</v>
+      </c>
+      <c r="I43">
+        <v>0.0139645154714382</v>
+      </c>
+      <c r="J43">
+        <v>0.01250957971010046</v>
+      </c>
+      <c r="K43">
+        <v>-0.01527443523740877</v>
+      </c>
+      <c r="L43">
+        <v>-0.002499505294171461</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>-0.07879156501990983</v>
+        <v>0.08611391054236953</v>
       </c>
       <c r="C44">
-        <v>0.03555822432535174</v>
+        <v>-0.05115961459667067</v>
       </c>
       <c r="D44">
-        <v>-0.008107843753886112</v>
+        <v>-0.02448580037890132</v>
       </c>
       <c r="E44">
-        <v>-0.08762468450326893</v>
+        <v>0.1062664226995498</v>
       </c>
       <c r="F44">
-        <v>-0.1167893240348673</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.07186263901103697</v>
+      </c>
+      <c r="G44">
+        <v>0.09108371376034748</v>
+      </c>
+      <c r="H44">
+        <v>-0.02040512362719326</v>
+      </c>
+      <c r="I44">
+        <v>0.1258127734132887</v>
+      </c>
+      <c r="J44">
+        <v>0.07489384753220504</v>
+      </c>
+      <c r="K44">
+        <v>-0.01778394479281933</v>
+      </c>
+      <c r="L44">
+        <v>-0.01288786069894189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2407,256 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>-0.02621701284009622</v>
+        <v>0.04340683625696141</v>
       </c>
       <c r="C46">
-        <v>0.0274835372328096</v>
+        <v>-0.03393967255637578</v>
       </c>
       <c r="D46">
-        <v>0.01523135733919099</v>
+        <v>0.0064552558742209</v>
       </c>
       <c r="E46">
-        <v>-0.02001633880291286</v>
+        <v>0.02453117554698362</v>
       </c>
       <c r="F46">
-        <v>-0.04360646257099311</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04409092848857024</v>
+      </c>
+      <c r="G46">
+        <v>0.01754282074557629</v>
+      </c>
+      <c r="H46">
+        <v>-0.01876282843432129</v>
+      </c>
+      <c r="I46">
+        <v>0.04392748967352326</v>
+      </c>
+      <c r="J46">
+        <v>-0.03684707921103104</v>
+      </c>
+      <c r="K46">
+        <v>-0.06879991385760177</v>
+      </c>
+      <c r="L46">
+        <v>-0.02123992535468078</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>-0.04020750456070588</v>
+        <v>0.04782111249626666</v>
       </c>
       <c r="C47">
-        <v>-0.004755762864346883</v>
+        <v>-0.01930809084921995</v>
       </c>
       <c r="D47">
-        <v>0.00219788510781211</v>
+        <v>-0.01619236544346616</v>
       </c>
       <c r="E47">
-        <v>-0.01534410204924847</v>
+        <v>0.004719554402997193</v>
       </c>
       <c r="F47">
-        <v>-0.07399140326247371</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.03742347023930422</v>
+      </c>
+      <c r="G47">
+        <v>0.008744591839733917</v>
+      </c>
+      <c r="H47">
+        <v>-0.03456291932268043</v>
+      </c>
+      <c r="I47">
+        <v>0.03755295660348037</v>
+      </c>
+      <c r="J47">
+        <v>-0.02756200960731776</v>
+      </c>
+      <c r="K47">
+        <v>0.02018593707660312</v>
+      </c>
+      <c r="L47">
+        <v>0.003262842199332448</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>-0.04634200111430763</v>
+        <v>0.04521167248259274</v>
       </c>
       <c r="C48">
-        <v>0.01585776165966338</v>
+        <v>-0.0164934865375944</v>
       </c>
       <c r="D48">
-        <v>0.02437987623116652</v>
+        <v>-0.0164459863868884</v>
       </c>
       <c r="E48">
-        <v>-0.02504938856239656</v>
+        <v>0.007829152657498919</v>
       </c>
       <c r="F48">
-        <v>-0.05833126900024711</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.0426094206309621</v>
+      </c>
+      <c r="G48">
+        <v>0.01986597128553696</v>
+      </c>
+      <c r="H48">
+        <v>0.004531769584139502</v>
+      </c>
+      <c r="I48">
+        <v>0.06151318138047288</v>
+      </c>
+      <c r="J48">
+        <v>-0.01392605337699785</v>
+      </c>
+      <c r="K48">
+        <v>-0.01282627026308336</v>
+      </c>
+      <c r="L48">
+        <v>0.03167422071306292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>-0.1477164568837605</v>
+        <v>0.2066055253907447</v>
       </c>
       <c r="C49">
-        <v>0.01826861010595412</v>
+        <v>-0.02805936341680093</v>
       </c>
       <c r="D49">
-        <v>0.1097906910385326</v>
+        <v>0.1864500787944204</v>
       </c>
       <c r="E49">
-        <v>-0.03094113396300499</v>
+        <v>-0.0233295664841623</v>
       </c>
       <c r="F49">
-        <v>0.1175834038217359</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.02075193334286704</v>
+      </c>
+      <c r="G49">
+        <v>-0.1814140738076551</v>
+      </c>
+      <c r="H49">
+        <v>0.1704344680731375</v>
+      </c>
+      <c r="I49">
+        <v>-0.1262556420046529</v>
+      </c>
+      <c r="J49">
+        <v>0.1508999272989812</v>
+      </c>
+      <c r="K49">
+        <v>0.03031899192043467</v>
+      </c>
+      <c r="L49">
+        <v>-0.1655522296021893</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>-0.06337774892117666</v>
+        <v>0.0520353749615103</v>
       </c>
       <c r="C50">
-        <v>0.01499013471631862</v>
+        <v>-0.04005571988577431</v>
       </c>
       <c r="D50">
-        <v>0.04013886532705954</v>
+        <v>0.003691058425300784</v>
       </c>
       <c r="E50">
-        <v>-0.003519063307795798</v>
+        <v>-0.01284659217022589</v>
       </c>
       <c r="F50">
-        <v>-0.02777403227790231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.03824290688944432</v>
+      </c>
+      <c r="G50">
+        <v>0.02666315922653636</v>
+      </c>
+      <c r="H50">
+        <v>-0.05176838274292549</v>
+      </c>
+      <c r="I50">
+        <v>0.03861200160654394</v>
+      </c>
+      <c r="J50">
+        <v>-0.04350235858928093</v>
+      </c>
+      <c r="K50">
+        <v>-0.005857573894902549</v>
+      </c>
+      <c r="L50">
+        <v>0.03396736984535784</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>-0.041934300990976</v>
+        <v>0.04083899456548509</v>
       </c>
       <c r="C51">
-        <v>0.00821261985631325</v>
+        <v>-0.008748930458564095</v>
       </c>
       <c r="D51">
-        <v>-0.003310850496588216</v>
+        <v>-0.005938025359938477</v>
       </c>
       <c r="E51">
-        <v>-0.001314483928944231</v>
+        <v>0.0215965958337937</v>
       </c>
       <c r="F51">
-        <v>-0.01013651976680048</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.02711113146767077</v>
+      </c>
+      <c r="G51">
+        <v>-0.01485466249370803</v>
+      </c>
+      <c r="H51">
+        <v>0.01158693506440824</v>
+      </c>
+      <c r="I51">
+        <v>-0.007443639084267805</v>
+      </c>
+      <c r="J51">
+        <v>0.04956361280257699</v>
+      </c>
+      <c r="K51">
+        <v>0.04461351985375961</v>
+      </c>
+      <c r="L51">
+        <v>-0.0439884302285034</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2673,180 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>-0.1480626423862586</v>
+        <v>0.1514896012986802</v>
       </c>
       <c r="C53">
-        <v>-0.03427418619320149</v>
+        <v>-0.02597447818942036</v>
       </c>
       <c r="D53">
-        <v>0.07300694444445222</v>
+        <v>0.0722358581258374</v>
       </c>
       <c r="E53">
-        <v>-0.007123367223669484</v>
+        <v>-0.02417757182190482</v>
       </c>
       <c r="F53">
-        <v>0.07678634308439126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.0006553930197837771</v>
+      </c>
+      <c r="G53">
+        <v>-0.01047806235143235</v>
+      </c>
+      <c r="H53">
+        <v>-0.2417270926411604</v>
+      </c>
+      <c r="I53">
+        <v>-0.06573544556028318</v>
+      </c>
+      <c r="J53">
+        <v>-0.02985904553358917</v>
+      </c>
+      <c r="K53">
+        <v>0.04426370701812423</v>
+      </c>
+      <c r="L53">
+        <v>-0.04206666564530065</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>-0.06028946209751265</v>
+        <v>0.06060962013225909</v>
       </c>
       <c r="C54">
-        <v>0.02301412698014728</v>
+        <v>-0.01964748748399457</v>
       </c>
       <c r="D54">
-        <v>-0.004062404973136531</v>
+        <v>-0.02301567838922851</v>
       </c>
       <c r="E54">
-        <v>-0.04288937736657079</v>
+        <v>0.03488494145618434</v>
       </c>
       <c r="F54">
-        <v>-0.06073698590259489</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.04861796815998379</v>
+      </c>
+      <c r="G54">
+        <v>0.08563142323488059</v>
+      </c>
+      <c r="H54">
+        <v>-0.01048151436019872</v>
+      </c>
+      <c r="I54">
+        <v>0.1174077274836333</v>
+      </c>
+      <c r="J54">
+        <v>-0.04623310551322326</v>
+      </c>
+      <c r="K54">
+        <v>-0.05398774742490743</v>
+      </c>
+      <c r="L54">
+        <v>0.02850711453870887</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>-0.09059765292768483</v>
+        <v>0.09214738965852359</v>
       </c>
       <c r="C55">
-        <v>-0.01187268101782299</v>
+        <v>-0.03079957951447979</v>
       </c>
       <c r="D55">
-        <v>0.0549100727059166</v>
+        <v>0.05098722460884017</v>
       </c>
       <c r="E55">
-        <v>-0.02387870693287534</v>
+        <v>0.003641148826156015</v>
       </c>
       <c r="F55">
-        <v>0.004439432661265589</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01312552900330557</v>
+      </c>
+      <c r="G55">
+        <v>0.03817055537666873</v>
+      </c>
+      <c r="H55">
+        <v>-0.1615778523803381</v>
+      </c>
+      <c r="I55">
+        <v>0.001172423043150241</v>
+      </c>
+      <c r="J55">
+        <v>-0.01909558780654081</v>
+      </c>
+      <c r="K55">
+        <v>0.0189242014428882</v>
+      </c>
+      <c r="L55">
+        <v>-0.06739429009008047</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>-0.1471461663283529</v>
+        <v>0.1465640466185922</v>
       </c>
       <c r="C56">
-        <v>-0.04362839878094759</v>
+        <v>-0.04214463656213346</v>
       </c>
       <c r="D56">
-        <v>0.0839723800001171</v>
+        <v>0.07157991115393791</v>
       </c>
       <c r="E56">
-        <v>-0.0474840740897805</v>
+        <v>-0.000743783903069252</v>
       </c>
       <c r="F56">
-        <v>0.08097333712830165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.01329235559785994</v>
+      </c>
+      <c r="G56">
+        <v>0.01259732213460448</v>
+      </c>
+      <c r="H56">
+        <v>-0.245107566859928</v>
+      </c>
+      <c r="I56">
+        <v>-0.08444003743240998</v>
+      </c>
+      <c r="J56">
+        <v>-0.01873017271414966</v>
+      </c>
+      <c r="K56">
+        <v>0.03249655726911156</v>
+      </c>
+      <c r="L56">
+        <v>0.005036985344154533</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,770 +2863,1472 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>-0.1057119999962701</v>
+        <v>0.06798127538470781</v>
       </c>
       <c r="C58">
-        <v>0.07143136215314068</v>
+        <v>-0.04754480133251059</v>
       </c>
       <c r="D58">
-        <v>-0.1735052288488443</v>
+        <v>-0.1770621129454989</v>
       </c>
       <c r="E58">
-        <v>-0.1002097204320821</v>
+        <v>0.09095528749734486</v>
       </c>
       <c r="F58">
-        <v>-0.271049760021387</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.07424045860399905</v>
+      </c>
+      <c r="G58">
+        <v>-0.1187443334258172</v>
+      </c>
+      <c r="H58">
+        <v>0.1675871443659633</v>
+      </c>
+      <c r="I58">
+        <v>0.4974456293227031</v>
+      </c>
+      <c r="J58">
+        <v>0.08125498092921563</v>
+      </c>
+      <c r="K58">
+        <v>0.3617565495264282</v>
+      </c>
+      <c r="L58">
+        <v>0.1119085399250434</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>-0.1711858573040244</v>
+        <v>0.1989640454088454</v>
       </c>
       <c r="C59">
-        <v>-0.4150179766161136</v>
+        <v>0.3256731246499557</v>
       </c>
       <c r="D59">
-        <v>-0.1103750396164999</v>
+        <v>-0.03036786473694807</v>
       </c>
       <c r="E59">
-        <v>-0.0885894981830613</v>
+        <v>0.02919533030253804</v>
       </c>
       <c r="F59">
-        <v>-0.03435613063803603</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.04632012107063366</v>
+      </c>
+      <c r="G59">
+        <v>0.03561869873504893</v>
+      </c>
+      <c r="H59">
+        <v>-0.05820341699962833</v>
+      </c>
+      <c r="I59">
+        <v>-0.04077870805070574</v>
+      </c>
+      <c r="J59">
+        <v>0.0495493760140936</v>
+      </c>
+      <c r="K59">
+        <v>-0.01636514150874475</v>
+      </c>
+      <c r="L59">
+        <v>-0.007536244322171475</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>-0.2228107451732448</v>
+        <v>0.2428972498965887</v>
       </c>
       <c r="C60">
-        <v>-0.01763558044737354</v>
+        <v>-0.06540827921928422</v>
       </c>
       <c r="D60">
-        <v>0.1058675606281504</v>
+        <v>0.142933955075028</v>
       </c>
       <c r="E60">
-        <v>-0.06893667831491142</v>
+        <v>0.009318820071892654</v>
       </c>
       <c r="F60">
-        <v>0.03091443437310866</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.01480004065385137</v>
+      </c>
+      <c r="G60">
+        <v>-0.0480176736633396</v>
+      </c>
+      <c r="H60">
+        <v>0.07866259984172935</v>
+      </c>
+      <c r="I60">
+        <v>-0.1257052657215219</v>
+      </c>
+      <c r="J60">
+        <v>-0.069665599497282</v>
+      </c>
+      <c r="K60">
+        <v>0.1261366175889665</v>
+      </c>
+      <c r="L60">
+        <v>-0.06260911377942889</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>-0.07769428610391919</v>
+        <v>0.08467311793180218</v>
       </c>
       <c r="C61">
-        <v>0.02804058442524445</v>
+        <v>-0.04445858888320701</v>
       </c>
       <c r="D61">
-        <v>0.0458596855185515</v>
+        <v>0.02213290093836185</v>
       </c>
       <c r="E61">
-        <v>-0.01154964193125957</v>
+        <v>0.02052483896038504</v>
       </c>
       <c r="F61">
-        <v>-0.0002961324761497468</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03140271946989791</v>
+      </c>
+      <c r="G61">
+        <v>0.0791168014821132</v>
+      </c>
+      <c r="H61">
+        <v>-0.05042753573857106</v>
+      </c>
+      <c r="I61">
+        <v>0.04970194639765065</v>
+      </c>
+      <c r="J61">
+        <v>0.08265957010962388</v>
+      </c>
+      <c r="K61">
+        <v>-0.01188711158744685</v>
+      </c>
+      <c r="L61">
+        <v>0.01747488687036923</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>-0.1555416500109031</v>
+        <v>0.1490638246711009</v>
       </c>
       <c r="C62">
-        <v>-0.01139109084385615</v>
+        <v>-0.05036501239494244</v>
       </c>
       <c r="D62">
-        <v>0.06211369351285524</v>
+        <v>0.06420556099370318</v>
       </c>
       <c r="E62">
-        <v>0.01040211838195484</v>
+        <v>-0.0421369205415907</v>
       </c>
       <c r="F62">
-        <v>0.1256499180465174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.01704316846229217</v>
+      </c>
+      <c r="G62">
+        <v>0.02997590982380956</v>
+      </c>
+      <c r="H62">
+        <v>-0.2177570009990153</v>
+      </c>
+      <c r="I62">
+        <v>-0.06053575906552049</v>
+      </c>
+      <c r="J62">
+        <v>-0.07539793792143941</v>
+      </c>
+      <c r="K62">
+        <v>0.004888413723379416</v>
+      </c>
+      <c r="L62">
+        <v>-0.05461432165551083</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>-0.06075263091790166</v>
+        <v>0.05116028198482816</v>
       </c>
       <c r="C63">
-        <v>0.03895226293001731</v>
+        <v>-0.03025869824911987</v>
       </c>
       <c r="D63">
-        <v>0.02590342940775708</v>
+        <v>-0.002538618681494549</v>
       </c>
       <c r="E63">
-        <v>-0.01627761917402265</v>
+        <v>-0.003709004649645995</v>
       </c>
       <c r="F63">
-        <v>-0.004350935914952911</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02574168021233825</v>
+      </c>
+      <c r="G63">
+        <v>0.05453428259122053</v>
+      </c>
+      <c r="H63">
+        <v>-0.01132830370807751</v>
+      </c>
+      <c r="I63">
+        <v>0.05654538597123552</v>
+      </c>
+      <c r="J63">
+        <v>-0.03579335769196524</v>
+      </c>
+      <c r="K63">
+        <v>-0.008770176744469317</v>
+      </c>
+      <c r="L63">
+        <v>0.01927898340315352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>-0.09823772486002802</v>
+        <v>0.1028457254698038</v>
       </c>
       <c r="C64">
-        <v>-0.01118051735726899</v>
+        <v>-0.02577699796339593</v>
       </c>
       <c r="D64">
-        <v>0.06025317156558747</v>
+        <v>0.03854058448102828</v>
       </c>
       <c r="E64">
-        <v>-0.03993895578866855</v>
+        <v>0.03124500177786011</v>
       </c>
       <c r="F64">
-        <v>-0.05237452324970955</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.0770638883995358</v>
+      </c>
+      <c r="G64">
+        <v>0.05254545608621497</v>
+      </c>
+      <c r="H64">
+        <v>0.01857734485794866</v>
+      </c>
+      <c r="I64">
+        <v>0.0243463789021885</v>
+      </c>
+      <c r="J64">
+        <v>0.0362980861935271</v>
+      </c>
+      <c r="K64">
+        <v>-0.005148774445300309</v>
+      </c>
+      <c r="L64">
+        <v>0.05056472951888479</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>-0.1117365156529162</v>
+        <v>0.1275021081932216</v>
       </c>
       <c r="C65">
-        <v>0.02108890817195959</v>
+        <v>-0.02253176298415533</v>
       </c>
       <c r="D65">
-        <v>0.03982312435663858</v>
+        <v>0.05604851967206868</v>
       </c>
       <c r="E65">
-        <v>-0.04702062567964271</v>
+        <v>-0.01110163303504573</v>
       </c>
       <c r="F65">
-        <v>-0.09174483018305764</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.05635792467796971</v>
+      </c>
+      <c r="G65">
+        <v>0.0684092310931972</v>
+      </c>
+      <c r="H65">
+        <v>0.1908628718470191</v>
+      </c>
+      <c r="I65">
+        <v>0.1254841571307216</v>
+      </c>
+      <c r="J65">
+        <v>-0.625155438257355</v>
+      </c>
+      <c r="K65">
+        <v>0.2251719662079642</v>
+      </c>
+      <c r="L65">
+        <v>-0.08826467134823605</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>-0.1568119148047975</v>
+        <v>0.1349164963529242</v>
       </c>
       <c r="C66">
-        <v>0.08617995344424612</v>
+        <v>-0.1105353221584139</v>
       </c>
       <c r="D66">
-        <v>0.09628368959867985</v>
+        <v>0.02639191848404204</v>
       </c>
       <c r="E66">
-        <v>-0.02629208175528775</v>
+        <v>0.005018967433772096</v>
       </c>
       <c r="F66">
-        <v>0.04083636447205571</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.04133208970098098</v>
+      </c>
+      <c r="G66">
+        <v>0.1026287886680189</v>
+      </c>
+      <c r="H66">
+        <v>-0.01426140275435064</v>
+      </c>
+      <c r="I66">
+        <v>0.08709350246129816</v>
+      </c>
+      <c r="J66">
+        <v>0.2317083835826843</v>
+      </c>
+      <c r="K66">
+        <v>-0.07436281549773405</v>
+      </c>
+      <c r="L66">
+        <v>0.07751516199892394</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>-0.09518988280575294</v>
+        <v>0.09559585820405275</v>
       </c>
       <c r="C67">
-        <v>0.03220688652388842</v>
+        <v>-0.05680757881434099</v>
       </c>
       <c r="D67">
-        <v>-0.009998411281666598</v>
+        <v>-0.008164319951324415</v>
       </c>
       <c r="E67">
-        <v>-0.01094821911930426</v>
+        <v>0.0440864920327124</v>
       </c>
       <c r="F67">
-        <v>-0.01855202225843985</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.02117800950339749</v>
+      </c>
+      <c r="G67">
+        <v>0.008443629595914293</v>
+      </c>
+      <c r="H67">
+        <v>-0.007906481854017603</v>
+      </c>
+      <c r="I67">
+        <v>-0.1354469301123818</v>
+      </c>
+      <c r="J67">
+        <v>0.05012245208635421</v>
+      </c>
+      <c r="K67">
+        <v>-0.08406564510167916</v>
+      </c>
+      <c r="L67">
+        <v>0.0009374375415873152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>-0.06215048965576133</v>
+        <v>0.09872813433777965</v>
       </c>
       <c r="C68">
-        <v>-0.2528512754614538</v>
+        <v>0.2747706915740428</v>
       </c>
       <c r="D68">
-        <v>-0.07595538630357872</v>
+        <v>-0.04717535378680567</v>
       </c>
       <c r="E68">
-        <v>-0.03726046784268933</v>
+        <v>0.02279963066961407</v>
       </c>
       <c r="F68">
-        <v>-0.04483256589012595</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01734530511308544</v>
+      </c>
+      <c r="G68">
+        <v>-0.006164135176191225</v>
+      </c>
+      <c r="H68">
+        <v>-0.0270767894560775</v>
+      </c>
+      <c r="I68">
+        <v>0.02488931091592117</v>
+      </c>
+      <c r="J68">
+        <v>-0.06275267360687406</v>
+      </c>
+      <c r="K68">
+        <v>0.01833095626295056</v>
+      </c>
+      <c r="L68">
+        <v>0.031868359639081</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>-0.06661735794107947</v>
+        <v>0.055141679443374</v>
       </c>
       <c r="C69">
-        <v>0.02014910552968391</v>
+        <v>-0.02625153524778964</v>
       </c>
       <c r="D69">
-        <v>0.006150070459578989</v>
+        <v>-0.01470669132601287</v>
       </c>
       <c r="E69">
-        <v>-0.01537230063920505</v>
+        <v>-0.004166985098619897</v>
       </c>
       <c r="F69">
-        <v>-0.005869088523954581</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.001658451948978137</v>
+      </c>
+      <c r="G69">
+        <v>0.02777397716677961</v>
+      </c>
+      <c r="H69">
+        <v>-0.04166432762784419</v>
+      </c>
+      <c r="I69">
+        <v>0.008360442335659491</v>
+      </c>
+      <c r="J69">
+        <v>0.008512625613171614</v>
+      </c>
+      <c r="K69">
+        <v>0.01459396070354618</v>
+      </c>
+      <c r="L69">
+        <v>0.007690961182909897</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>-0.01837674754501954</v>
+        <v>0.04145818442014636</v>
       </c>
       <c r="C70">
-        <v>-0.007883910585429721</v>
+        <v>-0.01848686837138451</v>
       </c>
       <c r="D70">
-        <v>0.0002243151588429553</v>
+        <v>0.02798963093364823</v>
       </c>
       <c r="E70">
-        <v>0.01313803802578915</v>
+        <v>-0.008905412109237662</v>
       </c>
       <c r="F70">
-        <v>-0.005838222454187085</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.04260112673569557</v>
+      </c>
+      <c r="G70">
+        <v>0.01401274092253393</v>
+      </c>
+      <c r="H70">
+        <v>0.01362157488027046</v>
+      </c>
+      <c r="I70">
+        <v>-0.03157379308340249</v>
+      </c>
+      <c r="J70">
+        <v>-0.008809006502175729</v>
+      </c>
+      <c r="K70">
+        <v>-0.1233786647449075</v>
+      </c>
+      <c r="L70">
+        <v>0.06632525140211444</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.06462435371828584</v>
+        <v>0.1108468695061858</v>
       </c>
       <c r="C71">
-        <v>-0.268469300675307</v>
+        <v>0.287501487997572</v>
       </c>
       <c r="D71">
-        <v>-0.07387579662717791</v>
+        <v>-0.03076645619832954</v>
       </c>
       <c r="E71">
-        <v>-0.06941798036449423</v>
+        <v>0.04170837082713542</v>
       </c>
       <c r="F71">
-        <v>-0.02759935295334753</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.02012815574905361</v>
+      </c>
+      <c r="G71">
+        <v>0.003588768748868089</v>
+      </c>
+      <c r="H71">
+        <v>-0.01345209256484441</v>
+      </c>
+      <c r="I71">
+        <v>0.01551651151915882</v>
+      </c>
+      <c r="J71">
+        <v>-0.01705596944259645</v>
+      </c>
+      <c r="K71">
+        <v>-0.003714278168686457</v>
+      </c>
+      <c r="L71">
+        <v>-0.007801385303867494</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.1426042594098104</v>
+        <v>0.1344030157524568</v>
       </c>
       <c r="C72">
-        <v>-0.04673201919129658</v>
+        <v>-0.009148371426513782</v>
       </c>
       <c r="D72">
-        <v>0.03961501535121825</v>
+        <v>-0.01787497906822299</v>
       </c>
       <c r="E72">
-        <v>0.2428563403948807</v>
+        <v>-0.1764582409549071</v>
       </c>
       <c r="F72">
-        <v>-0.005351920883212619</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.004007654385171431</v>
+      </c>
+      <c r="G72">
+        <v>0.1239047094196951</v>
+      </c>
+      <c r="H72">
+        <v>-0.01419411351555194</v>
+      </c>
+      <c r="I72">
+        <v>-0.0477920682314498</v>
+      </c>
+      <c r="J72">
+        <v>-0.08664767996451581</v>
+      </c>
+      <c r="K72">
+        <v>0.09312319034498984</v>
+      </c>
+      <c r="L72">
+        <v>-0.1382761059460475</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.2466618103590215</v>
+        <v>0.2382541453512368</v>
       </c>
       <c r="C73">
-        <v>0.05595929751290993</v>
+        <v>-0.1158809673146721</v>
       </c>
       <c r="D73">
-        <v>0.1514003840809767</v>
+        <v>0.243581875025512</v>
       </c>
       <c r="E73">
-        <v>-0.1042251108501484</v>
+        <v>0.0357792810664175</v>
       </c>
       <c r="F73">
-        <v>0.1034432932050095</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1356206274511386</v>
+      </c>
+      <c r="G73">
+        <v>-0.3072733336953378</v>
+      </c>
+      <c r="H73">
+        <v>0.2777641356371827</v>
+      </c>
+      <c r="I73">
+        <v>-0.1342428053173437</v>
+      </c>
+      <c r="J73">
+        <v>0.2975226055805397</v>
+      </c>
+      <c r="K73">
+        <v>0.4008398342401167</v>
+      </c>
+      <c r="L73">
+        <v>-0.1601567759793367</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.08335336701320126</v>
+        <v>0.08924734006882548</v>
       </c>
       <c r="C74">
-        <v>-0.0196028699268541</v>
+        <v>-0.0428810636518485</v>
       </c>
       <c r="D74">
-        <v>0.0552550311868492</v>
+        <v>0.0458301978763044</v>
       </c>
       <c r="E74">
-        <v>-0.009248075925955279</v>
+        <v>-0.01623047668266223</v>
       </c>
       <c r="F74">
-        <v>-0.00215621202609744</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.02185378457221488</v>
+      </c>
+      <c r="G74">
+        <v>-0.01455929987730638</v>
+      </c>
+      <c r="H74">
+        <v>-0.1423924686962932</v>
+      </c>
+      <c r="I74">
+        <v>-0.002013913120498936</v>
+      </c>
+      <c r="J74">
+        <v>0.02796956930706656</v>
+      </c>
+      <c r="K74">
+        <v>0.06320926243987027</v>
+      </c>
+      <c r="L74">
+        <v>-0.02594622621750061</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.1182447491802941</v>
+        <v>0.09980982309410263</v>
       </c>
       <c r="C75">
-        <v>-0.001552257815853924</v>
+        <v>-0.03943639269428951</v>
       </c>
       <c r="D75">
-        <v>-0.001589747103042135</v>
+        <v>-0.01057614177266381</v>
       </c>
       <c r="E75">
-        <v>-0.02212930800039164</v>
+        <v>-0.005851853869235308</v>
       </c>
       <c r="F75">
-        <v>0.03708884861820421</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.04093883734323592</v>
+      </c>
+      <c r="G75">
+        <v>-0.001907936836488099</v>
+      </c>
+      <c r="H75">
+        <v>-0.1374254209414507</v>
+      </c>
+      <c r="I75">
+        <v>-0.02482807908044926</v>
+      </c>
+      <c r="J75">
+        <v>-0.03729911874150385</v>
+      </c>
+      <c r="K75">
+        <v>0.02970224592980476</v>
+      </c>
+      <c r="L75">
+        <v>0.0005787112090908431</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.1326469738248742</v>
+        <v>0.1154172588560701</v>
       </c>
       <c r="C76">
-        <v>-0.01322645115223259</v>
+        <v>-0.05715410959537539</v>
       </c>
       <c r="D76">
-        <v>0.06421640482458635</v>
+        <v>0.05658670111684644</v>
       </c>
       <c r="E76">
-        <v>-0.01757808967849911</v>
+        <v>-0.0009672409537905399</v>
       </c>
       <c r="F76">
-        <v>0.02732958476691608</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.009260550221224444</v>
+      </c>
+      <c r="G76">
+        <v>-0.002215826642826893</v>
+      </c>
+      <c r="H76">
+        <v>-0.2350108051609791</v>
+      </c>
+      <c r="I76">
+        <v>-0.04907687897029704</v>
+      </c>
+      <c r="J76">
+        <v>-0.02975015289729145</v>
+      </c>
+      <c r="K76">
+        <v>0.04238172866381015</v>
+      </c>
+      <c r="L76">
+        <v>-0.007508305731307979</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>-0.1282703597881247</v>
+        <v>0.08819506080924186</v>
       </c>
       <c r="C77">
-        <v>0.06422877712496193</v>
+        <v>-0.03451531433827063</v>
       </c>
       <c r="D77">
-        <v>-0.1069089662235758</v>
+        <v>-0.1448410804218875</v>
       </c>
       <c r="E77">
-        <v>-0.0102408934055653</v>
+        <v>0.1202340764377103</v>
       </c>
       <c r="F77">
-        <v>-0.2130873199578816</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.06949317810685091</v>
+      </c>
+      <c r="G77">
+        <v>0.6468023838811082</v>
+      </c>
+      <c r="H77">
+        <v>0.3124864744291762</v>
+      </c>
+      <c r="I77">
+        <v>-0.4526919994091403</v>
+      </c>
+      <c r="J77">
+        <v>0.07784600523823339</v>
+      </c>
+      <c r="K77">
+        <v>0.08302505370545495</v>
+      </c>
+      <c r="L77">
+        <v>0.05418838533637142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>-0.1276012027373353</v>
+        <v>0.1617368216365921</v>
       </c>
       <c r="C78">
-        <v>0.06853880109840073</v>
+        <v>-0.08428698365814544</v>
       </c>
       <c r="D78">
-        <v>0.05292544511649964</v>
+        <v>-0.03482207534774488</v>
       </c>
       <c r="E78">
-        <v>-0.02829381529394907</v>
+        <v>0.0905798064229683</v>
       </c>
       <c r="F78">
-        <v>-0.08923437653589025</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.1487501363586795</v>
+      </c>
+      <c r="G78">
+        <v>0.01675195704385371</v>
+      </c>
+      <c r="H78">
+        <v>0.1088301513266471</v>
+      </c>
+      <c r="I78">
+        <v>0.09448659440306006</v>
+      </c>
+      <c r="J78">
+        <v>0.003374719313982006</v>
+      </c>
+      <c r="K78">
+        <v>-0.22770542240052</v>
+      </c>
+      <c r="L78">
+        <v>-0.4264639468125968</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>-0.1374828147245263</v>
+        <v>0.1369441875717497</v>
       </c>
       <c r="C79">
-        <v>0.00747160771054014</v>
+        <v>-0.05195186755533256</v>
       </c>
       <c r="D79">
-        <v>0.06692528917654189</v>
+        <v>0.04632990784326396</v>
       </c>
       <c r="E79">
-        <v>-0.006557992108849073</v>
+        <v>-0.006549949172494628</v>
       </c>
       <c r="F79">
-        <v>0.07894394025781054</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.01238609787845741</v>
+      </c>
+      <c r="G79">
+        <v>0.03705029170000591</v>
+      </c>
+      <c r="H79">
+        <v>-0.1871519376848383</v>
+      </c>
+      <c r="I79">
+        <v>-0.06649177330386255</v>
+      </c>
+      <c r="J79">
+        <v>-0.05407342469612716</v>
+      </c>
+      <c r="K79">
+        <v>0.02273647269108256</v>
+      </c>
+      <c r="L79">
+        <v>-0.03104648357670296</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>-0.03863899048605161</v>
+        <v>0.04392351960230467</v>
       </c>
       <c r="C80">
-        <v>0.02133666632463233</v>
+        <v>-0.01615573800408112</v>
       </c>
       <c r="D80">
-        <v>0.02059660881855711</v>
+        <v>0.05829397691717848</v>
       </c>
       <c r="E80">
-        <v>-0.006783603311727196</v>
+        <v>-0.01106925804650417</v>
       </c>
       <c r="F80">
-        <v>-0.01722669058098331</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.02103707681763525</v>
+      </c>
+      <c r="G80">
+        <v>0.01564475307098814</v>
+      </c>
+      <c r="H80">
+        <v>0.02281312514177552</v>
+      </c>
+      <c r="I80">
+        <v>0.09222456270083373</v>
+      </c>
+      <c r="J80">
+        <v>0.02553669210412454</v>
+      </c>
+      <c r="K80">
+        <v>-0.03718826071673637</v>
+      </c>
+      <c r="L80">
+        <v>-0.01539720981980391</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>-0.1336309210825534</v>
+        <v>0.1312295706031515</v>
       </c>
       <c r="C81">
-        <v>0.006588340735913212</v>
+        <v>-0.04030624691077785</v>
       </c>
       <c r="D81">
-        <v>0.07086652313919165</v>
+        <v>0.03864594014085879</v>
       </c>
       <c r="E81">
-        <v>-0.02940686799162749</v>
+        <v>-0.004932806186715552</v>
       </c>
       <c r="F81">
-        <v>0.03696449105303318</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.02438688852551911</v>
+      </c>
+      <c r="G81">
+        <v>0.02616001756430699</v>
+      </c>
+      <c r="H81">
+        <v>-0.1659465229312168</v>
+      </c>
+      <c r="I81">
+        <v>-0.02068415980138393</v>
+      </c>
+      <c r="J81">
+        <v>0.0293464650525766</v>
+      </c>
+      <c r="K81">
+        <v>0.02682277865560906</v>
+      </c>
+      <c r="L81">
+        <v>0.06495233833169417</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>-0.1150152007994272</v>
+        <v>0.1184123297605328</v>
       </c>
       <c r="C82">
-        <v>0.01653166825538738</v>
+        <v>-0.04225564109151887</v>
       </c>
       <c r="D82">
-        <v>0.03808749168830518</v>
+        <v>0.04274414182963476</v>
       </c>
       <c r="E82">
-        <v>-0.03069116556966599</v>
+        <v>-0.01395287456987379</v>
       </c>
       <c r="F82">
-        <v>0.1002364168697274</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.01477540576533166</v>
+      </c>
+      <c r="G82">
+        <v>-0.002653245692127122</v>
+      </c>
+      <c r="H82">
+        <v>-0.270153392696276</v>
+      </c>
+      <c r="I82">
+        <v>-0.0360301238736458</v>
+      </c>
+      <c r="J82">
+        <v>0.02727543237489719</v>
+      </c>
+      <c r="K82">
+        <v>-0.01749870087895503</v>
+      </c>
+      <c r="L82">
+        <v>0.001548741547295019</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.05469463431907106</v>
+        <v>0.07549475826443591</v>
       </c>
       <c r="C83">
-        <v>0.03235870450641807</v>
+        <v>-0.0432620921464654</v>
       </c>
       <c r="D83">
-        <v>-0.06160385216182322</v>
+        <v>-0.0109313134995639</v>
       </c>
       <c r="E83">
-        <v>-0.0114087282700909</v>
+        <v>0.02242023263230066</v>
       </c>
       <c r="F83">
-        <v>0.05649235597951786</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.07620731139261415</v>
+      </c>
+      <c r="G83">
+        <v>-0.03206807731401282</v>
+      </c>
+      <c r="H83">
+        <v>0.04714438914439432</v>
+      </c>
+      <c r="I83">
+        <v>0.08499617670381421</v>
+      </c>
+      <c r="J83">
+        <v>0.01204342122561701</v>
+      </c>
+      <c r="K83">
+        <v>-0.07627713191949415</v>
+      </c>
+      <c r="L83">
+        <v>-0.007076132478731308</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>-0.04874967845820009</v>
+        <v>0.03897496775085312</v>
       </c>
       <c r="C84">
-        <v>0.005361687997903236</v>
+        <v>0.02126166163317876</v>
       </c>
       <c r="D84">
-        <v>0.04811106185821379</v>
+        <v>-0.01519601421457887</v>
       </c>
       <c r="E84">
-        <v>0.01533300164506405</v>
+        <v>-0.02833263827086002</v>
       </c>
       <c r="F84">
-        <v>-0.01408460053865064</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.05641893804207449</v>
+      </c>
+      <c r="G84">
+        <v>-0.1056707405271965</v>
+      </c>
+      <c r="H84">
+        <v>0.1470784480842801</v>
+      </c>
+      <c r="I84">
+        <v>0.1446684046858198</v>
+      </c>
+      <c r="J84">
+        <v>0.05008887986447176</v>
+      </c>
+      <c r="K84">
+        <v>-0.3678297214379938</v>
+      </c>
+      <c r="L84">
+        <v>-0.2761486889034924</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>-0.1027289546080009</v>
+        <v>0.1150757845308288</v>
       </c>
       <c r="C85">
-        <v>0.02796491601396015</v>
+        <v>-0.04179466819052127</v>
       </c>
       <c r="D85">
-        <v>0.03535260486895532</v>
+        <v>0.03915138907722121</v>
       </c>
       <c r="E85">
-        <v>-0.05618951133674054</v>
+        <v>0.03576518570603512</v>
       </c>
       <c r="F85">
-        <v>0.02554417585350822</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.004711629267040833</v>
+      </c>
+      <c r="G85">
+        <v>0.02705962823231098</v>
+      </c>
+      <c r="H85">
+        <v>-0.1932587205329167</v>
+      </c>
+      <c r="I85">
+        <v>-0.03942064442618804</v>
+      </c>
+      <c r="J85">
+        <v>-0.05046683435116049</v>
+      </c>
+      <c r="K85">
+        <v>0.01890256577013798</v>
+      </c>
+      <c r="L85">
+        <v>-0.02814924972817437</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>-0.06525757048310517</v>
+        <v>0.07236108692294589</v>
       </c>
       <c r="C86">
-        <v>0.07233841333328818</v>
+        <v>-0.02396187850508065</v>
       </c>
       <c r="D86">
-        <v>0.02082922525546042</v>
+        <v>-0.02090618410913546</v>
       </c>
       <c r="E86">
-        <v>-0.008029150701773125</v>
+        <v>0.03040975812056093</v>
       </c>
       <c r="F86">
-        <v>-0.02824542387266143</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02847923756007028</v>
+      </c>
+      <c r="G86">
+        <v>-0.02640309459904471</v>
+      </c>
+      <c r="H86">
+        <v>0.08614485298249133</v>
+      </c>
+      <c r="I86">
+        <v>0.03550125485131742</v>
+      </c>
+      <c r="J86">
+        <v>0.01589630855114407</v>
+      </c>
+      <c r="K86">
+        <v>-0.3660294971383861</v>
+      </c>
+      <c r="L86">
+        <v>-0.2991183140145708</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>-0.1112770152899073</v>
+        <v>0.1180238745461081</v>
       </c>
       <c r="C87">
-        <v>0.05320285575187839</v>
+        <v>-0.06198791637142281</v>
       </c>
       <c r="D87">
-        <v>0.04409581844069276</v>
+        <v>-0.01033268523045971</v>
       </c>
       <c r="E87">
-        <v>-0.02815927983416957</v>
+        <v>0.02677461058364216</v>
       </c>
       <c r="F87">
-        <v>-0.1418698943385572</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.07815858108894846</v>
+      </c>
+      <c r="G87">
+        <v>0.1821544454777708</v>
+      </c>
+      <c r="H87">
+        <v>0.1445733539192899</v>
+      </c>
+      <c r="I87">
+        <v>-0.0797957560749262</v>
+      </c>
+      <c r="J87">
+        <v>0.03838149448038064</v>
+      </c>
+      <c r="K87">
+        <v>-0.03199977475162822</v>
+      </c>
+      <c r="L87">
+        <v>0.03027701744955075</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>-0.05994904525849606</v>
+        <v>0.06485961852634621</v>
       </c>
       <c r="C88">
-        <v>0.02506565886017352</v>
+        <v>-0.04713526541388514</v>
       </c>
       <c r="D88">
-        <v>0.03074139379855253</v>
+        <v>0.03811540640388675</v>
       </c>
       <c r="E88">
-        <v>-0.01619815935393787</v>
+        <v>0.006381356990368073</v>
       </c>
       <c r="F88">
-        <v>-0.0123460217111199</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.009920484243302167</v>
+      </c>
+      <c r="G88">
+        <v>0.02522804866641649</v>
+      </c>
+      <c r="H88">
+        <v>-0.01571478219996865</v>
+      </c>
+      <c r="I88">
+        <v>0.04800076011185696</v>
+      </c>
+      <c r="J88">
+        <v>0.03412308428821935</v>
+      </c>
+      <c r="K88">
+        <v>-0.01398064662523714</v>
+      </c>
+      <c r="L88">
+        <v>0.02481865756586425</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>-0.1004976586377738</v>
+        <v>0.1799826901815675</v>
       </c>
       <c r="C89">
-        <v>-0.3174137490735304</v>
+        <v>0.373776671414797</v>
       </c>
       <c r="D89">
-        <v>-0.10455326767201</v>
+        <v>-0.01883266877892472</v>
       </c>
       <c r="E89">
-        <v>-0.107705986564384</v>
+        <v>0.09505571037463315</v>
       </c>
       <c r="F89">
-        <v>-0.06476178962370878</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.0007973084907143463</v>
+      </c>
+      <c r="G89">
+        <v>-0.02140338891328727</v>
+      </c>
+      <c r="H89">
+        <v>0.0071220020395443</v>
+      </c>
+      <c r="I89">
+        <v>0.06836530533161947</v>
+      </c>
+      <c r="J89">
+        <v>0.09381227879500229</v>
+      </c>
+      <c r="K89">
+        <v>0.03405340889194874</v>
+      </c>
+      <c r="L89">
+        <v>0.0410651007562898</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>-0.08721569579635656</v>
+        <v>0.1247903812577052</v>
       </c>
       <c r="C90">
-        <v>-0.268963340082998</v>
+        <v>0.2750299668189918</v>
       </c>
       <c r="D90">
-        <v>-0.1018612817077184</v>
+        <v>-0.03755360643775749</v>
       </c>
       <c r="E90">
-        <v>-0.04979358588410433</v>
+        <v>0.03628468484961093</v>
       </c>
       <c r="F90">
-        <v>-0.05877976515015573</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01548724769505168</v>
+      </c>
+      <c r="G90">
+        <v>0.02126020010981527</v>
+      </c>
+      <c r="H90">
+        <v>0.03827575428113825</v>
+      </c>
+      <c r="I90">
+        <v>0.03039317157563189</v>
+      </c>
+      <c r="J90">
+        <v>0.04637318640281437</v>
+      </c>
+      <c r="K90">
+        <v>0.01555235143379472</v>
+      </c>
+      <c r="L90">
+        <v>0.0151068205980453</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>-0.0982174933797708</v>
+        <v>0.0847229170230441</v>
       </c>
       <c r="C91">
-        <v>0.00986833939058117</v>
+        <v>-0.04655742986526459</v>
       </c>
       <c r="D91">
-        <v>0.02694719977908605</v>
+        <v>0.005073505238698361</v>
       </c>
       <c r="E91">
-        <v>-0.01096922490624163</v>
+        <v>-0.001498027403261115</v>
       </c>
       <c r="F91">
-        <v>0.001427451327705998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.00871261179610224</v>
+      </c>
+      <c r="G91">
+        <v>-0.0186293377189991</v>
+      </c>
+      <c r="H91">
+        <v>-0.09910859679403558</v>
+      </c>
+      <c r="I91">
+        <v>-0.01831683866855298</v>
+      </c>
+      <c r="J91">
+        <v>-0.01790914695406381</v>
+      </c>
+      <c r="K91">
+        <v>0.0486239955329821</v>
+      </c>
+      <c r="L91">
+        <v>0.01204101605320214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>-0.0743313868865362</v>
+        <v>0.1284307813547834</v>
       </c>
       <c r="C92">
-        <v>-0.3313344346079865</v>
+        <v>0.3235912398463113</v>
       </c>
       <c r="D92">
-        <v>-0.07500343957099274</v>
+        <v>-0.0244247170274884</v>
       </c>
       <c r="E92">
-        <v>-0.08508778682780813</v>
+        <v>0.04759483899831007</v>
       </c>
       <c r="F92">
-        <v>-0.02295089463316004</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.02677208020217257</v>
+      </c>
+      <c r="G92">
+        <v>-0.01551433055352884</v>
+      </c>
+      <c r="H92">
+        <v>-0.03737032238407368</v>
+      </c>
+      <c r="I92">
+        <v>0.02515127892859758</v>
+      </c>
+      <c r="J92">
+        <v>0.02854561732269587</v>
+      </c>
+      <c r="K92">
+        <v>0.01170473710874304</v>
+      </c>
+      <c r="L92">
+        <v>-0.0003099170464671193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>-0.07662409918460704</v>
+        <v>0.1318051876475239</v>
       </c>
       <c r="C93">
-        <v>-0.275013733012446</v>
+        <v>0.3063074306406166</v>
       </c>
       <c r="D93">
-        <v>-0.06083078292826647</v>
+        <v>-0.01125628822897714</v>
       </c>
       <c r="E93">
-        <v>-0.04649550975944886</v>
+        <v>0.02120610622085265</v>
       </c>
       <c r="F93">
-        <v>-0.03591231175046958</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.002902895091618885</v>
+      </c>
+      <c r="G93">
+        <v>-0.002503304279730497</v>
+      </c>
+      <c r="H93">
+        <v>0.01267370525460816</v>
+      </c>
+      <c r="I93">
+        <v>-0.002866315397139618</v>
+      </c>
+      <c r="J93">
+        <v>-0.01080151384535064</v>
+      </c>
+      <c r="K93">
+        <v>-0.03661104546373134</v>
+      </c>
+      <c r="L93">
+        <v>0.01604661631245353</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>-0.1126331974519533</v>
+        <v>0.1133294281273067</v>
       </c>
       <c r="C94">
-        <v>0.04888767624293525</v>
+        <v>-0.06796349100147915</v>
       </c>
       <c r="D94">
-        <v>0.03630476919800304</v>
+        <v>0.01267862804005013</v>
       </c>
       <c r="E94">
-        <v>-0.03241337630074551</v>
+        <v>0.02392409684866424</v>
       </c>
       <c r="F94">
-        <v>0.009931392044803384</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.001116987095064512</v>
+      </c>
+      <c r="G94">
+        <v>-0.04131821773492357</v>
+      </c>
+      <c r="H94">
+        <v>-0.1330142394250829</v>
+      </c>
+      <c r="I94">
+        <v>-0.001200960203618842</v>
+      </c>
+      <c r="J94">
+        <v>-0.02143622490954377</v>
+      </c>
+      <c r="K94">
+        <v>0.03791665124763711</v>
+      </c>
+      <c r="L94">
+        <v>-0.001507288415288062</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>-0.1179171316071612</v>
+        <v>0.1356751315994159</v>
       </c>
       <c r="C95">
-        <v>0.08533544522177676</v>
+        <v>-0.06405974045880328</v>
       </c>
       <c r="D95">
-        <v>0.1036268173158012</v>
+        <v>0.03254566321834897</v>
       </c>
       <c r="E95">
-        <v>-0.08022970531618943</v>
+        <v>0.05755846257325466</v>
       </c>
       <c r="F95">
-        <v>0.01650432504329453</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.08616879349000729</v>
+      </c>
+      <c r="G95">
+        <v>0.01837960133966441</v>
+      </c>
+      <c r="H95">
+        <v>0.1741503080767577</v>
+      </c>
+      <c r="I95">
+        <v>0.0727573098514218</v>
+      </c>
+      <c r="J95">
+        <v>0.02122778306485535</v>
+      </c>
+      <c r="K95">
+        <v>-0.05750883939146774</v>
+      </c>
+      <c r="L95">
+        <v>-0.07479909461905318</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4345,142 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-0.2647952183106239</v>
+        <v>0.1869959884637431</v>
       </c>
       <c r="C97">
-        <v>-0.1406881251442373</v>
+        <v>0.01359653730359928</v>
       </c>
       <c r="D97">
-        <v>0.06439528487525764</v>
+        <v>-0.2960296749294689</v>
       </c>
       <c r="E97">
-        <v>0.8826425411665264</v>
+        <v>-0.8906341741753612</v>
       </c>
       <c r="F97">
-        <v>-0.02776287533209011</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.02891667809541632</v>
+      </c>
+      <c r="G97">
+        <v>0.03436624512129898</v>
+      </c>
+      <c r="H97">
+        <v>0.07471689171360209</v>
+      </c>
+      <c r="I97">
+        <v>0.03956235091803868</v>
+      </c>
+      <c r="J97">
+        <v>0.08210178365301823</v>
+      </c>
+      <c r="K97">
+        <v>0.03073904566741114</v>
+      </c>
+      <c r="L97">
+        <v>-0.0023915143499527</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>-0.2911077166123382</v>
+        <v>0.2797773667052549</v>
       </c>
       <c r="C98">
-        <v>0.07700869815041964</v>
+        <v>-0.1155223703171889</v>
       </c>
       <c r="D98">
-        <v>0.03092287034014704</v>
+        <v>0.1343965611950692</v>
       </c>
       <c r="E98">
-        <v>-0.1048810056559405</v>
+        <v>-0.04633193457269232</v>
       </c>
       <c r="F98">
-        <v>0.4462281788412189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2582805177154271</v>
+      </c>
+      <c r="G98">
+        <v>-0.3195355760561001</v>
+      </c>
+      <c r="H98">
+        <v>0.2154178690335957</v>
+      </c>
+      <c r="I98">
+        <v>-0.1719701328348588</v>
+      </c>
+      <c r="J98">
+        <v>-0.1873531740690258</v>
+      </c>
+      <c r="K98">
+        <v>-0.384568952089645</v>
+      </c>
+      <c r="L98">
+        <v>0.4976662826836571</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>-0.2727765302219629</v>
+        <v>0.1559202147493126</v>
       </c>
       <c r="C99">
-        <v>0.2824872270071342</v>
+        <v>-0.1361220587495634</v>
       </c>
       <c r="D99">
-        <v>-0.8381416649950175</v>
+        <v>-0.5252126947413989</v>
       </c>
       <c r="E99">
-        <v>0.04294907083379107</v>
+        <v>0.1852220137013847</v>
       </c>
       <c r="F99">
-        <v>0.2028076271642164</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.6970252233041521</v>
+      </c>
+      <c r="G99">
+        <v>0.009437071017185788</v>
+      </c>
+      <c r="H99">
+        <v>-0.1070167024604606</v>
+      </c>
+      <c r="I99">
+        <v>0.08880849177429469</v>
+      </c>
+      <c r="J99">
+        <v>-0.04356201592888127</v>
+      </c>
+      <c r="K99">
+        <v>-0.01933910907417969</v>
+      </c>
+      <c r="L99">
+        <v>-0.1477217247457222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,30 +4497,66 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>-0.05033809283381185</v>
+        <v>0.04873675122995536</v>
       </c>
       <c r="C101">
-        <v>-0.00160244141424345</v>
+        <v>-0.01662249453819288</v>
       </c>
       <c r="D101">
-        <v>0.02219981249780861</v>
+        <v>0.01018300494078543</v>
       </c>
       <c r="E101">
-        <v>-0.01676605241436636</v>
+        <v>0.01911384145080104</v>
       </c>
       <c r="F101">
-        <v>-0.03349268444630446</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03493917971159499</v>
+      </c>
+      <c r="G101">
+        <v>0.03980604902972452</v>
+      </c>
+      <c r="H101">
+        <v>-0.04397495182242553</v>
+      </c>
+      <c r="I101">
+        <v>0.04623525546258517</v>
+      </c>
+      <c r="J101">
+        <v>-0.01474348911776431</v>
+      </c>
+      <c r="K101">
+        <v>-0.02945571575258761</v>
+      </c>
+      <c r="L101">
+        <v>0.004052431083722908</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2737,10 +4573,28 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4611,28 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4647,24 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
